--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>26</v>
       </c>
       <c r="B36" t="s">
@@ -1461,7 +1461,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>27</v>
       </c>
       <c r="B37" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,7 +883,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" t="s">
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1399,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>24</v>
       </c>
       <c r="B33" t="s">
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>82</v>
       </c>
       <c r="B109" t="s">
@@ -2626,7 +2626,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>83</v>
       </c>
       <c r="B111" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>80</v>
       </c>
       <c r="B107" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2733,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>88</v>
       </c>
       <c r="B118" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2125,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>58</v>
       </c>
       <c r="B81" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" t="s">
@@ -2201,7 +2201,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>62</v>
       </c>
       <c r="B86" t="s">
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>63</v>
       </c>
       <c r="B87" t="s">
@@ -2301,7 +2301,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>67</v>
       </c>
       <c r="B91" t="s">
@@ -2360,7 +2360,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>70</v>
       </c>
       <c r="B95" t="s">
@@ -2397,7 +2397,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>72</v>
       </c>
       <c r="B97" t="s">
@@ -2417,7 +2417,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>73</v>
       </c>
       <c r="B98" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>64</v>
       </c>
       <c r="B88" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,7 +2377,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>71</v>
       </c>
       <c r="B96" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" t="s">
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" t="s">
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>121</v>
       </c>
       <c r="B163" t="s">
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>122</v>
       </c>
       <c r="B164" t="s">
@@ -3490,7 +3490,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>123</v>
       </c>
       <c r="B165" t="s">
@@ -3564,7 +3564,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>127</v>
       </c>
       <c r="B169" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,7 +3116,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>105</v>
       </c>
       <c r="B143" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>106</v>
       </c>
       <c r="B145" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1593,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>33</v>
       </c>
       <c r="B46" t="s">
@@ -2581,7 +2581,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>81</v>
       </c>
       <c r="B108" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1633,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>35</v>
       </c>
       <c r="B48" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,7 +3396,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>118</v>
       </c>
       <c r="B160" t="s">
@@ -3413,7 +3413,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>119</v>
       </c>
       <c r="B161" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,7 +3430,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>120</v>
       </c>
       <c r="B162" t="s">
@@ -3530,7 +3530,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>125</v>
       </c>
       <c r="B167" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>45</v>
       </c>
       <c r="B62" t="s">
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>55</v>
       </c>
       <c r="B74" t="s">
@@ -2181,7 +2181,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>61</v>
       </c>
       <c r="B85" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,7 +3186,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>108</v>
       </c>
       <c r="B148" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -883,7 +883,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>109</v>
       </c>
       <c r="B149" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3311,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>114</v>
       </c>
       <c r="B155" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3336,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>115</v>
       </c>
       <c r="B157" t="s">
@@ -3356,7 +3356,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>116</v>
       </c>
       <c r="B158" t="s">
@@ -3376,7 +3376,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>117</v>
       </c>
       <c r="B159" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2968,7 +2968,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>98</v>
       </c>
       <c r="B135" t="s">
@@ -2988,7 +2988,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>99</v>
       </c>
       <c r="B136" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>34</v>
       </c>
       <c r="B47" t="s">
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>36</v>
       </c>
       <c r="B49" t="s">
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>37</v>
       </c>
       <c r="B50" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>92</v>
       </c>
       <c r="B125" t="s">
@@ -2865,7 +2865,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>94</v>
       </c>
       <c r="B127" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -883,7 +883,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2923,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>96</v>
       </c>
       <c r="B132" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" t="s">
@@ -1219,7 +1219,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" t="s">
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
       <c r="B23" t="s">
@@ -1511,7 +1511,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>29</v>
       </c>
       <c r="B41" t="s">
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>95</v>
       </c>
       <c r="B130" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1864,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>46</v>
       </c>
       <c r="B63" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1884,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>47</v>
       </c>
       <c r="B64" t="s">
@@ -2758,7 +2758,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>89</v>
       </c>
       <c r="B120" t="s">
@@ -2800,7 +2800,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>91</v>
       </c>
       <c r="B123" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,7 +2516,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>78</v>
       </c>
       <c r="B104" t="s">
@@ -2775,7 +2775,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>90</v>
       </c>
       <c r="B121" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -883,7 +883,7 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="A115" sqref="A115:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,23 +2687,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>86</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C115">
-        <v>3</v>
-      </c>
-      <c r="D115">
-        <v>3</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C115" s="1">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD115"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2005,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>53</v>
       </c>
       <c r="B72" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>77</v>
       </c>
       <c r="B103" t="s">
@@ -2687,23 +2687,23 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>86</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>111</v>
       </c>
-      <c r="C115" s="1">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1" t="s">
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" t="s">
         <v>9</v>
       </c>
     </row>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
       <c r="B22" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,23 +2058,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>56</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1">
         <v>5</v>
       </c>
-      <c r="E75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="E75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -636,7 +636,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2025,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>54</v>
       </c>
       <c r="B73" t="s">
@@ -2058,23 +2058,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>56</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="1">
-        <v>4</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
         <v>5</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>57</v>
       </c>
       <c r="B78" t="s">
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>59</v>
       </c>
       <c r="B82" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="166">
   <si>
     <t>Question</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>34 left</t>
   </si>
 </sst>
 </file>
@@ -880,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +899,7 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -915,8 +918,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -936,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>8</v>
       </c>
@@ -944,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -964,12 +970,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -989,12 +995,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1031,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1065,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1085,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1122,12 +1128,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="167">
   <si>
     <t>Question</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>34 left</t>
+  </si>
+  <si>
+    <t>Important</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -674,7 +677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -883,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J176"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +900,7 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1153,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -1170,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1281,7 +1285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1301,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1321,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -1341,18 +1345,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
       <c r="B29" t="s">
@@ -1370,9 +1374,12 @@
       <c r="F29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="M29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
       <c r="B30" t="s">
@@ -1390,8 +1397,11 @@
       <c r="F30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>42</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>39</v>
       </c>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>75</v>
       </c>
       <c r="B100" t="s">
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>84</v>
       </c>
       <c r="B112" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3642,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>130</v>
       </c>
       <c r="B173" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -642,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,7 +677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>25</v>
       </c>
       <c r="B34" t="s">
@@ -1783,7 +1783,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>42</v>
       </c>
       <c r="B55" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -889,7 +889,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>41</v>
       </c>
       <c r="B54" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -642,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,7 +677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>32</v>
       </c>
       <c r="B45" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1981,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>51</v>
       </c>
       <c r="B70" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -889,7 +889,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2001,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>52</v>
       </c>
       <c r="B71" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="6840"/>
@@ -642,7 +642,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -677,7 +677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -889,7 +889,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,7 +1808,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>43</v>
       </c>
       <c r="B57" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -889,7 +889,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1937,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>49</v>
       </c>
       <c r="B66" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,7 +3667,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>131</v>
       </c>
       <c r="B175" t="s">
@@ -3687,7 +3687,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>132</v>
       </c>
       <c r="B176" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -889,7 +889,7 @@
   <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,7 +3526,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>124</v>
       </c>
       <c r="B166" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -1025,7 +1025,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -2495,7 +2495,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>76</v>
       </c>
       <c r="B102" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>79</v>
       </c>
       <c r="B106" t="s">

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -521,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +543,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,8 +568,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -570,19 +582,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -888,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1106,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -1497,7 +1527,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>28</v>
       </c>
       <c r="B38" t="s">
@@ -1569,7 +1599,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>31</v>
       </c>
       <c r="B44" t="s">
@@ -1833,7 +1863,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>44</v>
       </c>
       <c r="B59" t="s">
@@ -2175,7 +2205,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>60</v>
       </c>
       <c r="B83" t="s">
@@ -2724,7 +2754,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="3">
         <v>87</v>
       </c>
       <c r="B116" t="s">
@@ -2959,7 +2989,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>97</v>
       </c>
       <c r="B133" t="s">
